--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_02_beg.xlsx
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Eh? Mount Sky...?
+    <t xml:space="preserve">[name="Mr. Nothing"]Eh? Mount Sky...?
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](I've never heard of it, absolutely never heard of it!)
+    <t xml:space="preserve">[name="Mr. Nothing"](I've never heard of it, absolutely never heard of it!)
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Huh?
+    <t xml:space="preserve">[name="Mr. Nothing"]Huh?
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](Quietly) Benefactor, I won't mince words: my history is quite poor, but Ching-tso... has to be centuries ago at least. I've never heard of an era by that name...
+    <t xml:space="preserve">[name="Mr. Nothing"](Quietly) Benefactor, I won't mince words: my history is quite poor, but Ching-tso... has to be centuries ago at least. I've never heard of an era by that name...
 </t>
   </si>
   <si>
@@ -1068,7 +1068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](Quietly) Wh... what's going on, benefactor? Could we have tumbled a thousand years back when we opened that door?
+    <t xml:space="preserve">[name="Mr. Nothing"](Quietly) Wh... what's going on, benefactor? Could we have tumbled a thousand years back when we opened that door?
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](Quietly) Of course they couldn't! Perhaps this Umbrella-Boiling Hermit blurted out pure nonsense? But I can't imagine he'd do that, noting how refined his manner is.
+    <t xml:space="preserve">[name="Mr. Nothing"](Quietly) Of course they couldn't! Perhaps this Umbrella-Boiling Hermit blurted out pure nonsense? But I can't imagine he'd do that, noting how refined his manner is.
 </t>
   </si>
   <si>
@@ -1180,11 +1180,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Er, benefactors, if I could interrupt, just very quickly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]May I dare ask, will you again be telling stories here the next day?
+    <t xml:space="preserve">[name="Mr. Nothing"]Er, benefactors, if I could interrupt, just very quickly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]May I dare ask, will you again be telling stories here the next day?
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]As that is the case tomorrow, I presume yesterday you also took up your hand fan and gavel block?
+    <t xml:space="preserve">[name="Mr. Nothing"]As that is the case tomorrow, I presume yesterday you also took up your hand fan and gavel block?
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Err. Then with the sun and moon constant above, and 'today, the next day, and yesterday,' how should you define what one 'day' is?
+    <t xml:space="preserve">[name="Mr. Nothing"]Err. Then with the sun and moon constant above, and 'today, the next day, and yesterday,' how should you define what one 'day' is?
 </t>
   </si>
   <si>
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Erm... do the twelve branches and the twenty-four hours not track the time over one day and night?
+    <t xml:space="preserve">[name="Mr. Nothing"]Erm... do the twelve branches and the twenty-four hours not track the time over one day and night?
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Then... suppose P'o-shan Village alone occupies such a vast domain; if there are villages elsewhere, mightn't they be forever without daylight?
+    <t xml:space="preserve">[name="Mr. Nothing"]Then... suppose P'o-shan Village alone occupies such a vast domain; if there are villages elsewhere, mightn't they be forever without daylight?
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]......
+    <t xml:space="preserve">[name="Mr. Nothing"]......
 </t>
   </si>
   <si>
@@ -1292,11 +1292,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Dear me! And I thought this place was a true peach-blossom utopia! I hadn't imagined such troubles here... Those monsters are much too frightening. To give them a wide berth is the sensible thing!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](Quietly) Benefactors, their ways are plainly much too strange...
+    <t xml:space="preserve">[name="Mr. Nothing"]Dear me! And I thought this place was a true peach-blossom utopia! I hadn't imagined such troubles here... Those monsters are much too frightening. To give them a wide berth is the sensible thing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"](Quietly) Benefactors, their ways are plainly much too strange...
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](Quietly) Benefactor, your verdict?
+    <t xml:space="preserve">[name="Mr. Nothing"](Quietly) Benefactor, your verdict?
 </t>
   </si>
   <si>
@@ -1352,11 +1352,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Right!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]In that case, we'd be best to accept.
+    <t xml:space="preserve">[name="Mr. Nothing"]Right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]In that case, we'd be best to accept.
 </t>
   </si>
   <si>
@@ -1384,7 +1384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ah, are you testing for poison, benefactors? You should've said sooner; let me come to your aid!
+    <t xml:space="preserve">[name="Mr. Nothing"]Ah, are you testing for poison, benefactors? You should've said sooner; let me come to your aid!
 </t>
   </si>
   <si>
@@ -1392,11 +1392,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Mmph!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Mm, dear benefactor, this fruit is quite fresh! And peculiarly sweet.
+    <t xml:space="preserve">[name="Mr. Nothing"]Mmph!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Mm, dear benefactor, this fruit is quite fresh! And peculiarly sweet.
 </t>
   </si>
   <si>
@@ -1404,7 +1404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Mind it not! As the proverb goes, one cannot lack the heart to protect, no?
+    <t xml:space="preserve">[name="Mr. Nothing"]Mind it not! As the proverb goes, one cannot lack the heart to protect, no?
 </t>
   </si>
   <si>
@@ -1428,7 +1428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]How could I leave my benefactor to toil alone! I must accompany you!
+    <t xml:space="preserve">[name="Mr. Nothing"]How could I leave my benefactor to toil alone! I must accompany you!
 </t>
   </si>
   <si>
@@ -1436,7 +1436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Alright. Then shall we meet in... two hours?
+    <t xml:space="preserve">[name="Mr. Nothing"]Alright. Then shall we meet in... two hours?
 </t>
   </si>
   <si>
@@ -1472,23 +1472,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]*Sigh*.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](I may have been drawn into something indescribably bizarre... But I suppose that has had a silver lining...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](Speaking of which, this truly isn't—any joking matter... If I can't find a way to return, then what do I even do...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](Oh... but Lava and Kroos have been quite the saviors to me. I can't fault them for this... *sigh*! I'll just have to see as I go—)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ohh, my apologies there, I'm truly sorry. I was lost in thought and clearly wasn't watching my way—
+    <t xml:space="preserve">[name="Mr. Nothing"]*Sigh*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"](I may have been drawn into something indescribably bizarre... But I suppose that has had a silver lining...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"](Speaking of which, this truly isn't—any joking matter... If I can't find a way to return, then what do I even do...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"](Oh... but Lava and Kroos have been quite the saviors to me. I can't fault them for this... *sigh*! I'll just have to see as I go—)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Ohh, my apologies there, I'm truly sorry. I was lost in thought and clearly wasn't watching my way—
 </t>
   </si>
   <si>
@@ -1528,7 +1528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]……?
+    <t xml:space="preserve">[name="라바"]파산……?
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="이야기꾼"]예, 집이 다 타버렸는데도 그 그림은 성한 구석이 하나도 없었고, 먼지를 털어내니 새 그림처럼 멀쩡했다더군요.
+    <t xml:space="preserve">[name="이야기꾼"]예, 집이 다 타버렸는데도, 그 그림만은 먼지를 털어내니 새 그림처럼 멀쩡했다더군요.
 </t>
   </si>
   <si>
